--- a/data/ES + technologies + erosion control.xlsx
+++ b/data/ES + technologies + erosion control.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="VmdsNcotxGhXJCYhK/NCoh5UxroDtuNYmf96GvlLPw0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CbaZWjWZVXmEMXyWN2C1VfiQCdt0ijO+Dz1xhisbfTE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Authors</t>
   </si>
@@ -712,57 +712,6 @@
   </si>
   <si>
     <t>Organic matter management is key to sustain ecosystem services provided by soils. However, it is rarely considered in a holistic view, considering local resources, agro-environmental effects and harmonization with farmers' needs. Organic inputs, like compost and biochar, could represent a sustainable solution to massive current challenges associated to the intensification of agriculture, in particular for tropical regions. Here we assess the potential of agricultural residues as a resource for farmer communities in southwestern India to reduce their dependency on external inputs and sustain ecosystem services. We propose a novel joint evaluation of farmers' aspirations together with agro-environmental effects of organic inputs on soils. Our soil quality evaluation showed that biochar alone or with compost did not improve unilaterally soils in the tropics (Anthroposol, Ferralsol and Vertisol). Many organic inputs led to an initial decrease in water-holding capacities of control soils (-27.3%: coconut shell biochar with compost on Anthroposol). Responses to organic matter inputs for carbon were strongest for Ferralsols (+33.4% with rice husk biochar), and mostly positive for Anthroposols and Vertisols (+12.5% to +13.8% respectively). Soil pH responses were surprisingly negative for Ferralsols and only positive if biochar was applied alone (between -5.6% to +1.9%). For Anthroposols and Vertisols, highest increases were achieved with rice husk biochar + vermicomposts (+7.2% and +5.2% respectively). Our socio-economic evaluation showed that farmers with a stronger economical position showed greater interest towards technology like biochar (factor 1.3 to 1.6 higher for farmers cultivating Anthroposols and/or Vertisols compared to Ferralsols), while poorer farmers more skepticism, which may lead to an increased economical gap within rural communities if technologies are not implemented with long-term guidance. These results advocate for an interdisciplinary evaluation of agricultural technology prior to its implementation as a development tool in the field.</t>
-  </si>
-  <si>
-    <t>Sankhulani, Linda</t>
-  </si>
-  <si>
-    <t>Impact Evaluation of Conservation Agriculture on Smallholder Farmers’ Livelihood in Zambia and Tanzania</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>vonHedemann, Nicolena</t>
-  </si>
-  <si>
-    <t>Incentives, Livelihoods, and Forest Ecology: Payments for Ecosystem Services in Guatemala's Western Highlands</t>
-  </si>
-  <si>
-    <t>Mwangana, Namulula</t>
-  </si>
-  <si>
-    <t>Evaluating Trade-Offs Between Agricultural Productivity and Long-Term Ecosystem Services Provision Among Maize Farmers Practising Conventional and Conservation Agriculture in Kafue Zambia</t>
-  </si>
-  <si>
-    <t>Cho, Alyssa Heh-Soon</t>
-  </si>
-  <si>
-    <t>Introduction of agricultural technologies in peanut ( Arachis hypogaea L.) and cassava (Manihot esculenta Crantz) based cropping systems for smallholder farmers in Guyana and Vietnam</t>
-  </si>
-  <si>
-    <t>Kraushar, Matthew S.</t>
-  </si>
-  <si>
-    <t>Native vegetation establishment and management in prairie and Conservation Reserve Program acres</t>
-  </si>
-  <si>
-    <t>Li, Lin</t>
-  </si>
-  <si>
-    <t>Research on ecosystem services evaluation of the modern yellow river delta wetland based on 3s technology</t>
-  </si>
-  <si>
-    <t>Adey, Samantha</t>
-  </si>
-  <si>
-    <t>A Journey Without Maps: Towards Sustainable Subsistence Agriculture in South Africa</t>
-  </si>
-  <si>
-    <t>Kanshie, Tadesse Kippie</t>
-  </si>
-  <si>
-    <t>Five Thousand Years of Sustainability? : a Case Study on Gedeo Land Use (Southern Ethiopia)</t>
   </si>
 </sst>
 </file>
@@ -2110,116 +2059,44 @@
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" s="2">
-        <v>2021.0</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C80" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C81" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="2">
-        <v>2011.0</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84" s="2">
-        <v>2007.0</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C85" s="2">
-        <v>2002.0</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
@@ -6750,46 +6627,6 @@
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="D991" s="1"/>
-    </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="D992" s="1"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="D993" s="1"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="D994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
